--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week16/BSS_EffortLog_MinhDoan_Week16.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week16/BSS_EffortLog_MinhDoan_Week16.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -42,23 +42,71 @@
     <t>Actual Time</t>
   </si>
   <si>
-    <t>Demo Function "Create Draft" using Angular2 , Mongodb</t>
-  </si>
-  <si>
-    <t>WEEK:16</t>
-  </si>
-  <si>
     <t>19/1/2017</t>
   </si>
   <si>
     <t>20/1/2017</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>16/1/2017</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage FAQ"</t>
+  </si>
+  <si>
+    <t>Training Technical</t>
+  </si>
+  <si>
+    <t>17/1/2017</t>
+  </si>
+  <si>
+    <t>Draw class diagram function "Manage Popups"</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Categories"</t>
+  </si>
+  <si>
+    <t>18/1/2017</t>
+  </si>
+  <si>
+    <t>Draw sequence diagram function "Manage Popups"</t>
+  </si>
+  <si>
+    <t>Mentor Meeting</t>
+  </si>
+  <si>
+    <t>Review class diagram function "Manage FAQ"</t>
+  </si>
+  <si>
+    <t>Review class diagram function "Manage Homepage"</t>
+  </si>
+  <si>
+    <t>Review class diagram function "Manage Examination"</t>
+  </si>
+  <si>
+    <t>Review sequence diagram function "Manage Categories"</t>
+  </si>
+  <si>
+    <t>Review sequence diagram function "Manage Homepage"</t>
+  </si>
+  <si>
+    <t>Collect diagram into document</t>
+  </si>
+  <si>
+    <t>21/1/2017</t>
+  </si>
+  <si>
+    <t>WEEK: 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +118,7 @@
       <sz val="11"/>
       <color rgb="FF1E1E1E"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -87,10 +136,17 @@
       <sz val="16"/>
       <color rgb="FF1E1E1E"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -109,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,11 +188,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -145,13 +216,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,7 +556,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,14 +575,14 @@
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -521,14 +606,14 @@
     <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -622,23 +707,23 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
-        <v>6</v>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="H5" s="6">
-        <v>5</v>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -663,12 +748,24 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13">
+        <v>6</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -692,12 +789,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -721,12 +830,24 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7</v>
+      </c>
+      <c r="H8" s="13">
+        <v>6</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -750,12 +871,24 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7</v>
+      </c>
+      <c r="H9" s="13">
+        <v>8</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -779,12 +912,24 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13">
+        <v>8</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -808,12 +953,24 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -837,12 +994,24 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -866,12 +1035,24 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -895,12 +1076,24 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -924,12 +1117,24 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -953,12 +1158,24 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -982,12 +1199,24 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
